--- a/data/trans_bre/P24_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_6_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,45</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>180,39%</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>83,12%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>122,68%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 27,16</t>
+          <t>-13,0; 20,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 17,92</t>
+          <t>-9,25; 22,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 25,86</t>
+          <t>-16,6; 18,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 11,47</t>
+          <t>-7,8; 23,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,31; 735,67</t>
+          <t>-16,44; 15,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,02; 330,24</t>
+          <t>-56,64; 461,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 694,74</t>
+          <t>-59,54; 674,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-66,4; 244,88</t>
+          <t>-64,37; 256,27</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-69,7; 253,13</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,88</t>
+          <t>26,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,55</t>
+          <t>16,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>270,99%</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>205,75%</t>
+          <t>327,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>184,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,54%</t>
+          <t>-0,57%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-14,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,64%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,24; 32,77</t>
+          <t>10,99; 41,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 28,72</t>
+          <t>2,16; 31,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 13,29</t>
+          <t>-17,24; 15,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 10,24</t>
+          <t>-33,86; 17,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,83; 1127,42</t>
+          <t>-21,25; 33,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,85; 772,94</t>
+          <t>55,55; 1473,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,88; 140,14</t>
+          <t>6,55; 994,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,95; 72,07</t>
+          <t>-58,59; 147,54</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-74,39; 123,51</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-53,86; 270,17</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,99</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,1</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,25</t>
+          <t>15,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,46%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>66,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>109,47%</t>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>74,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>102,27%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 22,25</t>
+          <t>-7,68; 21,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 22,26</t>
+          <t>-1,85; 26,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 16,16</t>
+          <t>-12,83; 15,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 29,72</t>
+          <t>1,05; 30,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 171,07</t>
+          <t>3,51; 30,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 204,87</t>
+          <t>-27,26; 141,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,88; 151,42</t>
+          <t>-9,46; 230,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,95; 274,52</t>
+          <t>-39,1; 107,67</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 245,32</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10,29; 283,66</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,28</t>
+          <t>17,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,97</t>
+          <t>17,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,82</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,04</t>
+          <t>13,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>12,04</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,21%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>81,86%</t>
+          <t>70,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>47,22%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>47,67%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32,15%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 25,53</t>
+          <t>1,2; 29,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 23,87</t>
+          <t>4,82; 31,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 29,52</t>
+          <t>-1,25; 29,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,64; 29,85</t>
+          <t>-0,5; 27,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,2; 163,05</t>
+          <t>-2,07; 26,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,51; 132,71</t>
+          <t>3,4; 198,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,23; 159,77</t>
+          <t>13,55; 189,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,37; 143,14</t>
+          <t>-3,55; 133,65</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 124,82</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 90,63</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>15,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,46</t>
+          <t>24,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,49</t>
+          <t>28,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,63</t>
+          <t>21,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,55%</t>
+          <t>15,16</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>130,32%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>128,58%</t>
+          <t>170,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>162,64%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>69,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>50,04%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 22,47</t>
+          <t>0,15; 32,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,08; 37,49</t>
+          <t>9,39; 41,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,7; 41,43</t>
+          <t>12,35; 44,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,32; 38,56</t>
+          <t>2,81; 38,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 126,13</t>
+          <t>-3,63; 34,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,24; 261,7</t>
+          <t>-0,13; 304,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>56,71; 247,29</t>
+          <t>39,48; 524,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,99; 172,03</t>
+          <t>51,21; 416,25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 179,86</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-11,58; 153,17</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,9</t>
+          <t>25,35</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,4</t>
+          <t>13,55</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,56</t>
+          <t>21,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,74</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>132,11%</t>
+          <t>12,59</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>174,26%</t>
+          <t>174,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>79,6%</t>
+          <t>63,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>69,62%</t>
+          <t>78,61%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28,67%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>28,11%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,95; 38,28</t>
+          <t>7,4; 43,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,47; 43,84</t>
+          <t>-6,13; 32,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,95; 36,64</t>
+          <t>2,25; 43,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 34,86</t>
+          <t>-11,32; 32,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,45; 341,72</t>
+          <t>-11,66; 36,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,65; 411,48</t>
+          <t>19,3; 652,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,21; 186,56</t>
+          <t>-23,1; 299,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 153,19</t>
+          <t>3,12; 264,57</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-25,18; 142,66</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-21,33; 127,46</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,98</t>
+          <t>15,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,73</t>
+          <t>15,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,74</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>12,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>101,34%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>76,32%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>44,9%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>43,74%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>45,82%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,12; 20,75</t>
+          <t>9,21; 22,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,25; 21,5</t>
+          <t>9,28; 22,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,18; 19,7</t>
+          <t>3,75; 17,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,44; 20,49</t>
+          <t>3,16; 18,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>58,19; 141,95</t>
+          <t>3,36; 22,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>66,34; 152,83</t>
+          <t>45,74; 156,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>39,74; 116,59</t>
+          <t>43,69; 166,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>31,78; 111,87</t>
+          <t>14,34; 90,05</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9,86; 87,77</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 92,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
